--- a/InputFiles/CCDI/TC07_CCDI_RowDataValidation_phs002517.xlsx
+++ b/InputFiles/CCDI/TC07_CCDI_RowDataValidation_phs002517.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\Desktop\CCDI\phs002517\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF426C59-E39B-4B36-8F18-0D4D3CEFEA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A494046D-5138-4E56-A8B2-1A0EEDCD623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -147,6 +147,12 @@
           sm.sample_tumor_status as `Sample Tumor Status`,
           sm.tumor_classification as `Sample Tumor Classification`
 Order by sm.sample_id Limit 100</t>
+  </si>
+  <si>
+    <t>TC07_CCDI_RowDataValidation_phs002517-InptVlue_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC07_CCDI_RowDataValidation_phs002517-InptVlue_ExData.xlsx</t>
   </si>
   <si>
     <t>MATCH (file:clinical_measure_file)
@@ -314,12 +320,6 @@
 sm.sample_id AS `Sample ID`,
 file.dcf_indexd_guid AS `GUID`,
 file.md5sum AS `MD5sum`</t>
-  </si>
-  <si>
-    <t>TC07_CCDI_RowDataValidation_phs002517-InptVlue_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC07_CCDI_RowDataValidation_phs002517-InptVlue_ExData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,10 +725,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="275" customHeight="1" x14ac:dyDescent="0.35">
@@ -739,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
@@ -753,10 +753,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="203" x14ac:dyDescent="0.35">
@@ -767,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
@@ -778,13 +778,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
